--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_9.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_0</t>
+          <t>model_9_9_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7939236502757198</v>
+        <v>0.651583184210772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9334908707705782</v>
+        <v>0.7753551199508597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4658284358986408</v>
+        <v>-0.08554840244577533</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7635714132615475</v>
+        <v>0.4131451593922615</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2280658036470413</v>
+        <v>0.3855947554111481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1343986988067627</v>
+        <v>0.341054767370224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8370435237884521</v>
+        <v>1.605809450149536</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4650548696517944</v>
+        <v>0.9362332820892334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_1</t>
+          <t>model_9_9_11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7959978190428931</v>
+        <v>0.6542959287863025</v>
       </c>
       <c r="C3" t="n">
-        <v>0.930529703495271</v>
+        <v>0.7779888241899641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4648664048681745</v>
+        <v>-0.06098909020762466</v>
       </c>
       <c r="E3" t="n">
-        <v>0.761600193536185</v>
+        <v>0.4251904194489127</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2257703095674515</v>
+        <v>0.3825925290584564</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1403824836015701</v>
+        <v>0.3370562493801117</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8385509848594666</v>
+        <v>1.569479823112488</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4689322710037231</v>
+        <v>0.9170169830322266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_2</t>
+          <t>model_9_9_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7978487075426517</v>
+        <v>0.658824391158332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9270942605456165</v>
+        <v>0.7680263830246702</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4639181068768402</v>
+        <v>0.07939183755550361</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7593761317121837</v>
+        <v>0.4814250619736631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.223721906542778</v>
+        <v>0.377580851316452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1473246812820435</v>
+        <v>0.3521811962127686</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8400369882583618</v>
+        <v>1.361819744110107</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4733069837093353</v>
+        <v>0.8273035883903503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_3</t>
+          <t>model_9_9_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7997092641219036</v>
+        <v>0.6607129039750785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9235910633735895</v>
+        <v>0.7841320745110339</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4638527516583807</v>
+        <v>-0.03064284920125471</v>
       </c>
       <c r="E5" t="n">
-        <v>0.757446415893425</v>
+        <v>0.4415238539239358</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2216628044843674</v>
+        <v>0.3754908442497253</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1544037908315659</v>
+        <v>0.3277296125888824</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8401393890380859</v>
+        <v>1.524589896202087</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4771027266979218</v>
+        <v>0.8909596800804138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_4</t>
+          <t>model_9_9_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8009856653549758</v>
+        <v>0.6626687118355219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9205631516284655</v>
+        <v>0.7842487333248664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4608425045066414</v>
+        <v>-0.003201936494804158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7546711371120274</v>
+        <v>0.4535579753400545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2202502191066742</v>
+        <v>0.3733263313770294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1605224609375</v>
+        <v>0.32755246758461</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8448565006256104</v>
+        <v>1.483997464179993</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4825617372989655</v>
+        <v>0.8717610836029053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_5</t>
+          <t>model_9_9_13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8020320378725947</v>
+        <v>0.663085309795153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9173852046684401</v>
+        <v>0.8415495164439704</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4574684090480712</v>
+        <v>-0.2709395609568019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7516776457164769</v>
+        <v>0.365598976816951</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2190922051668167</v>
+        <v>0.3728652596473694</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1669443100690842</v>
+        <v>0.2405587285757065</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8501436114311218</v>
+        <v>1.880051374435425</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4884498715400696</v>
+        <v>1.012085676193237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_6</t>
+          <t>model_9_9_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8031584118850862</v>
+        <v>0.6652829663231834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9138886007154982</v>
+        <v>0.7874616534430574</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4555264386484587</v>
+        <v>0.01910322110537732</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7490478868145063</v>
+        <v>0.4649093551764861</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2178456485271454</v>
+        <v>0.370433121919632</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1740100979804993</v>
+        <v>0.3226746320724487</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8531866669654846</v>
+        <v>1.451002359390259</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4936226606369019</v>
+        <v>0.8536518216133118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_7</t>
+          <t>model_9_9_5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8038061195281835</v>
+        <v>0.6677251379970661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9105695820140292</v>
+        <v>0.7090637832646504</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4513971349708101</v>
+        <v>0.4616124294683552</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7456947998980159</v>
+        <v>0.6184989891295667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.217128798365593</v>
+        <v>0.3677303493022919</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1807170212268829</v>
+        <v>0.4416979551315308</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8596572875976562</v>
+        <v>0.7964157462120056</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5002180933952332</v>
+        <v>0.6086239814758301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_8</t>
+          <t>model_9_9_0</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8045528139270918</v>
+        <v>0.6721707901461442</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9070341368151178</v>
+        <v>0.7489388316707017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4484689555188427</v>
+        <v>0.9486930182248843</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7426740812062422</v>
+        <v>0.8511247096455985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2163024693727493</v>
+        <v>0.3628103733062744</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1878612786531448</v>
+        <v>0.3811598122119904</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8642457127571106</v>
+        <v>0.07589641213417053</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5061599612236023</v>
+        <v>0.2375067472457886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_9</t>
+          <t>model_9_9_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8048807263729592</v>
+        <v>0.6730577171550403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9037606638160244</v>
+        <v>0.6919173484957147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4436327674016294</v>
+        <v>0.547550341933507</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7390808052273268</v>
+        <v>0.6473589769224782</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2159395217895508</v>
+        <v>0.3618287742137909</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1944761872291565</v>
+        <v>0.4677295684814453</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8718239665031433</v>
+        <v>0.6692911386489868</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5132279396057129</v>
+        <v>0.5625824928283691</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_10</t>
+          <t>model_9_9_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.805648788768712</v>
+        <v>0.6742678934658677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9001595181756821</v>
+        <v>0.7318535750021008</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4420801640699671</v>
+        <v>0.6239641213317229</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7365400934915709</v>
+        <v>0.700822261604479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2150895297527313</v>
+        <v>0.3604894280433655</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2017532140016556</v>
+        <v>0.4070985615253448</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8742569088935852</v>
+        <v>0.5562552213668823</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5182254314422607</v>
+        <v>0.4772903919219971</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_11</t>
+          <t>model_9_9_3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8060395019273683</v>
+        <v>0.6745854856992193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8967644142915713</v>
+        <v>0.6814079480552728</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4385762092629166</v>
+        <v>0.6279341268792257</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7333798965473999</v>
+        <v>0.6771395789107342</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2146570980548859</v>
+        <v>0.3601379692554474</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2086138874292374</v>
+        <v>0.4836848974227905</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8797476291656494</v>
+        <v>0.5503825545310974</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5244415998458862</v>
+        <v>0.5150722861289978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_21</t>
+          <t>model_9_9_6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8062796132444024</v>
+        <v>0.6785415976063043</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8661834115846314</v>
+        <v>0.7361596081564205</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4012909002801395</v>
+        <v>0.3921525974563483</v>
       </c>
       <c r="E14" t="n">
-        <v>0.702769594718097</v>
+        <v>0.6018417382287786</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2143913954496384</v>
+        <v>0.3557597100734711</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2704106271266937</v>
+        <v>0.4005611836910248</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9381734132766724</v>
+        <v>0.8991649150848389</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5846520662307739</v>
+        <v>0.6351980566978455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_20</t>
+          <t>model_9_9_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8063288022988188</v>
+        <v>0.6822929288074036</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8690840696963271</v>
+        <v>0.8351327352694201</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4041917020939931</v>
+        <v>-0.2414207410550644</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7054348886653349</v>
+        <v>0.3752469760659487</v>
       </c>
       <c r="F15" t="n">
-        <v>0.214336946606636</v>
+        <v>0.3516081273555756</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2645491063594818</v>
+        <v>0.2503006458282471</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9336279034614563</v>
+        <v>1.836385250091553</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5794093608856201</v>
+        <v>0.9966937899589539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_19</t>
+          <t>model_9_9_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8063615316480922</v>
+        <v>0.6854933683355009</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8718784747955314</v>
+        <v>0.8353212834940249</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4073792555784652</v>
+        <v>-0.2208993689181371</v>
       </c>
       <c r="E16" t="n">
-        <v>0.708149429345265</v>
+        <v>0.3842958663077651</v>
       </c>
       <c r="F16" t="n">
-        <v>0.214300736784935</v>
+        <v>0.3480661511421204</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2589022815227509</v>
+        <v>0.2500144243240356</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9286330342292786</v>
+        <v>1.806028842926025</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5740698575973511</v>
+        <v>0.9822577238082886</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_12</t>
+          <t>model_9_9_14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8063754608706299</v>
+        <v>0.6864477840941351</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8934675130859161</v>
+        <v>0.8345341686319201</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4351495985290175</v>
+        <v>-0.2069336168892359</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7303024473941011</v>
+        <v>0.389991267962801</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2142852991819382</v>
+        <v>0.3470099270343781</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2152761071920395</v>
+        <v>0.2512094080448151</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8851170539855957</v>
+        <v>1.785369873046875</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5304949283599854</v>
+        <v>0.973171591758728</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_22</t>
+          <t>model_9_9_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8064775941656794</v>
+        <v>0.6892793906036117</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8633198014602779</v>
+        <v>0.8346157745766063</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3998241729324351</v>
+        <v>-0.2584654259115011</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7006623444431048</v>
+        <v>0.3675495184575199</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2141722738742828</v>
+        <v>0.3438761234283447</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2761972844600677</v>
+        <v>0.2510855197906494</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9404717683792114</v>
+        <v>1.86159884929657</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5887969732284546</v>
+        <v>1.008973956108093</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_18</t>
+          <t>model_9_9_1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8064832197103095</v>
+        <v>0.6943035356393452</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8746608825658292</v>
+        <v>0.7459214201546309</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4113783985903202</v>
+        <v>0.9328226960389492</v>
       </c>
       <c r="E19" t="n">
-        <v>0.71116202676866</v>
+        <v>0.842680125806698</v>
       </c>
       <c r="F19" t="n">
-        <v>0.214166060090065</v>
+        <v>0.3383159041404724</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2532797157764435</v>
+        <v>0.3857408165931702</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9223663806915283</v>
+        <v>0.09937276691198349</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5681440830230713</v>
+        <v>0.2509787678718567</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_16</t>
+          <t>model_9_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8065072808906796</v>
+        <v>0.6967641178901627</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8807432699999177</v>
+        <v>0.8304101345430084</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4185092720512023</v>
+        <v>-0.2414234812836484</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7171436347189377</v>
+        <v>0.3728663529750784</v>
       </c>
       <c r="F20" t="n">
-        <v>0.214139387011528</v>
+        <v>0.3355927765369415</v>
       </c>
       <c r="G20" t="n">
-        <v>0.240988701581955</v>
+        <v>0.2574704885482788</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9111923575401306</v>
+        <v>1.836389303207397</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5563783049583435</v>
+        <v>1.000491619110107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_17</t>
+          <t>model_9_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8065303465697785</v>
+        <v>0.6999204153197562</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8776481306951047</v>
+        <v>0.8338197321419742</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4150828712623212</v>
+        <v>-0.2498563410203429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7141755183904996</v>
+        <v>0.370905296835353</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2141139209270477</v>
+        <v>0.3320996761322021</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2472432255744934</v>
+        <v>0.2522940337657928</v>
       </c>
       <c r="H21" t="n">
-        <v>0.916561484336853</v>
+        <v>1.848863840103149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.562216579914093</v>
+        <v>1.003620266914368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_23</t>
+          <t>model_9_9_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8065865757091184</v>
+        <v>0.700078710267364</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8606059699151726</v>
+        <v>0.8264365864826092</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3979946104230346</v>
+        <v>-0.287131671867251</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6985004636871268</v>
+        <v>0.3509191961364374</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2140516489744186</v>
+        <v>0.3319244682788849</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2816812694072723</v>
+        <v>0.2635031044483185</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9433387517929077</v>
+        <v>1.904003739356995</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5930494666099548</v>
+        <v>1.035504817962646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_24</t>
+          <t>model_9_9_20</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8066004800552427</v>
+        <v>0.7014166785922709</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8580783759796781</v>
+        <v>0.834384636946696</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3957239318293584</v>
+        <v>-0.2527732728922691</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6962745690862306</v>
+        <v>0.3699190966210506</v>
       </c>
       <c r="F23" t="n">
-        <v>0.214036300778389</v>
+        <v>0.330443799495697</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2867889106273651</v>
+        <v>0.2514364123344421</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9468969106674194</v>
+        <v>1.853178739547729</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5974277257919312</v>
+        <v>1.005193591117859</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_15</t>
+          <t>model_9_9_21</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8066510098586257</v>
+        <v>0.7015614584324374</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8838369003547133</v>
+        <v>0.8257127292138344</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4231439857614681</v>
+        <v>-0.2744063581436287</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7205637315327176</v>
+        <v>0.3561094070511772</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2139803618192673</v>
+        <v>0.3302834928035736</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2347372323274612</v>
+        <v>0.2646020650863647</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9039298295974731</v>
+        <v>1.88517951965332</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5496509671211243</v>
+        <v>1.027224779129028</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_14</t>
+          <t>model_9_9_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8066592185322397</v>
+        <v>0.7030945544433923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8870023144059787</v>
+        <v>0.8177275053695517</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4273523951971503</v>
+        <v>-0.2934687186702769</v>
       </c>
       <c r="E25" t="n">
-        <v>0.72386293271582</v>
+        <v>0.3437695119953891</v>
       </c>
       <c r="F25" t="n">
-        <v>0.213971272110939</v>
+        <v>0.3285868465900421</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2283407002687454</v>
+        <v>0.276725172996521</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8973352909088135</v>
+        <v>1.91337776184082</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5431614518165588</v>
+        <v>1.046911001205444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_13</t>
+          <t>model_9_9_23</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8066672133887065</v>
+        <v>0.7036948668093669</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8901599002035397</v>
+        <v>0.8181015562732558</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4319470894237698</v>
+        <v>-0.28417700065991</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7273026518341277</v>
+        <v>0.3480093386485048</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2139624357223511</v>
+        <v>0.3279224932193756</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2219599932432175</v>
+        <v>0.2761573195457458</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8901353478431702</v>
+        <v>1.899632930755615</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5363954901695251</v>
+        <v>1.040147066116333</v>
       </c>
     </row>
   </sheetData>
